--- a/backend/api/servicehandler/services/Respite.xlsx
+++ b/backend/api/servicehandler/services/Respite.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/behnaz_merikhi_utoronto_ca/Documents/ASD Project/DB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dextertam/Documents/UofT/Y3/_Extracurricular/AutismCanadaAI/backend/api/servicehandler/services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{983B58DC-2A2B-4BA0-A3F3-702CF97F8187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00826F0-8DEA-A248-BBD0-86B420695F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recovered_Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="575">
   <si>
     <t>https://www.myautismguide.ca/mag/content/provider/aptus-treatment-centre-complex-disabilities-1?nid=569866</t>
   </si>
@@ -308,9 +307,6 @@
     <t>3640 Wells Street Windsor, ONN9C 1T9</t>
   </si>
   <si>
-    <t>519-966-7283</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/autisme-estrie?nid=578936</t>
   </si>
   <si>
@@ -368,9 +364,6 @@
     <t>1006 Plains Rd. E Burlington, ONL7T 4K2</t>
   </si>
   <si>
-    <t>905-634-2881</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/base-de-plein-air-bon-depart?nid=578971</t>
   </si>
   <si>
@@ -449,9 +442,6 @@
     <t>16, Ramage Crescent Red Deer, ABT4P 3X3</t>
   </si>
   <si>
-    <t>7805911000</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/bridge-care-north-central-region?nid=597151</t>
   </si>
   <si>
@@ -482,9 +472,6 @@
     <t>130 Irwin's Point Road Baie Vert, NBE4M 1H5</t>
   </si>
   <si>
-    <t>9024536000 ext.227</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/cdrcp?nid=571216</t>
   </si>
   <si>
@@ -512,9 +499,6 @@
     <t>53 Bond Street Oakville, ONL6K1L8</t>
   </si>
   <si>
-    <t>1(905) 844-7864</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/centre-de-repit-depannage-aux-quatre-poches?nid=579111</t>
   </si>
   <si>
@@ -572,9 +556,6 @@
     <t>12550 Lacordaire Boulevard Montreal, QCH1G 4L8</t>
   </si>
   <si>
-    <t>5143276667 200</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/centre-petite-echelle?nid=579211</t>
   </si>
   <si>
@@ -725,9 +706,6 @@
     <t>3-1950 MERIVALE RD Ottawa, ONK2G 5T5</t>
   </si>
   <si>
-    <t>6132255900 x44</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/christian-horizons-3?nid=571546</t>
   </si>
   <si>
@@ -806,9 +784,6 @@
     <t>4220 Steeles Ave. West, Unit A7 Woodbridge, ONL4L3s8</t>
   </si>
   <si>
-    <t>905-265-9633</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/community-access-learning-centre?nid=571616</t>
   </si>
   <si>
@@ -992,9 +967,6 @@
     <t>22 Fielding Ave Dartmouth, NSB3B 1E2</t>
   </si>
   <si>
-    <t>9024536000 x227</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/easter-seals-0?nid=559426</t>
   </si>
   <si>
@@ -1208,9 +1180,6 @@
     <t>St. Mark's United Church, 201 Centre St. S. Whitby, ONL1V 4V7</t>
   </si>
   <si>
-    <t>905-420-0388</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/footprints-4-autism?nid=572806</t>
   </si>
   <si>
@@ -1328,9 +1297,6 @@
     <t>231 Elm Beaconsfield, QCH9W 2E2</t>
   </si>
   <si>
-    <t>5146953914#3304</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/improving-lives?nid=573341</t>
   </si>
   <si>
@@ -1352,9 +1318,6 @@
     <t>9 Industrial Parkway South Aurora, ONl4g3v9</t>
   </si>
   <si>
-    <t>905-841-7303</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/inclusion-saskatchewan-1?nid=581456</t>
   </si>
   <si>
@@ -1418,9 +1381,6 @@
     <t>Calgary, AB</t>
   </si>
   <si>
-    <t>403- 590-2122</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/just-family-home-care-etobicoke?nid=606466</t>
   </si>
   <si>
@@ -1430,9 +1390,6 @@
     <t>600-3250 Bloor St W  Etobicoke, ONL7G 0N5</t>
   </si>
   <si>
-    <t>416-480-7254</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/kapuskasing-district-association-community-living?nid=573591</t>
   </si>
   <si>
@@ -1454,9 +1411,6 @@
     <t>12550 Boul.  Lacordaire Montreal, QUH1G 4L8</t>
   </si>
   <si>
-    <t>514-327-6667 # 200</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/leduc-linx-connect-centre-0?nid=588476</t>
   </si>
   <si>
@@ -1466,9 +1420,6 @@
     <t>5708-47 st Leduc, ABT9E 6Z9</t>
   </si>
   <si>
-    <t>780-980-9423</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/more-services-inc?nid=588486</t>
   </si>
   <si>
@@ -1478,9 +1429,6 @@
     <t>1662 Water Street P.O. BOX 69  Miramichi, NBE1N 3A5</t>
   </si>
   <si>
-    <t>506-778-6411</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/mimico-snap?nid=575206</t>
   </si>
   <si>
@@ -1502,9 +1450,6 @@
     <t>12 Folkins Drive Sackville, NBE4L 1H9</t>
   </si>
   <si>
-    <t>506-536-4565</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/proset-inclusive-tennis-1?nid=588651</t>
   </si>
   <si>
@@ -1514,9 +1459,6 @@
     <t>100 rue Poplar  Gatineau, QCJ8P 5E4</t>
   </si>
   <si>
-    <t>438-321-1564</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/recreational-respite-6?nid=593241</t>
   </si>
   <si>
@@ -1571,9 +1513,6 @@
     <t>PO Box 3012  Southampton, ONN0H2L0</t>
   </si>
   <si>
-    <t>877-855-7070</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/recreational-respite-4?nid=593231</t>
   </si>
   <si>
@@ -1607,9 +1546,6 @@
     <t>23 Maypoint Road  Charlottetown, PEC1E 0H5</t>
   </si>
   <si>
-    <t>902-894-9286</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/tk-behavioral?nid=561636</t>
   </si>
   <si>
@@ -1631,9 +1567,6 @@
     <t>#200 3219 Eby Street  Terrace, BCV8G 4R3</t>
   </si>
   <si>
-    <t>250-635-3178</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/trait-dunion-outaouais-inc?nid=588826</t>
   </si>
   <si>
@@ -1643,9 +1576,6 @@
     <t>109 Wright st. Gatineau, QCJ8X 2G7</t>
   </si>
   <si>
-    <t>819-595-1290</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/vantage-enterprises-ltd-0?nid=588846</t>
   </si>
   <si>
@@ -1655,9 +1585,6 @@
     <t>#219 - 18 St SE Calgary, ABT2E 6J5</t>
   </si>
   <si>
-    <t>403 276 9403</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/wes-consortium?nid=589301</t>
   </si>
   <si>
@@ -1667,9 +1594,6 @@
     <t>Brampton, ON</t>
   </si>
   <si>
-    <t>905-439-9280</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/westward-goals-support-services-inc?nid=588871</t>
   </si>
   <si>
@@ -1679,9 +1603,6 @@
     <t>4611 48th St.  Rocky Mountain House, ABT4T 1B7</t>
   </si>
   <si>
-    <t>403-845-2922</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/wiaih-west-island-association-intellectually-handicapped?nid=588876</t>
   </si>
   <si>
@@ -1691,9 +1612,6 @@
     <t>111 Donegani Pointe Claire, QCH9R 2W3</t>
   </si>
   <si>
-    <t>514-694-7090</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/willowgrove-inc?nid=588881</t>
   </si>
   <si>
@@ -1703,9 +1621,6 @@
     <t>11737 McCowan Road Stoufville, ONL4A 4C3</t>
   </si>
   <si>
-    <t>905-640-2127</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/york-autism-centre-making-small-talk?nid=588901</t>
   </si>
   <si>
@@ -1715,9 +1630,6 @@
     <t>73 Industrial Parkway North - Unit 4 Aurora, ONL4C 4C4</t>
   </si>
   <si>
-    <t>647-519-6739</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/ywca-metro-vancouver?nid=566676</t>
   </si>
   <si>
@@ -1739,9 +1651,6 @@
     <t>4904-54 AVE. SUITE 104  Yellowknife, NTX1A 1H7</t>
   </si>
   <si>
-    <t>873-8257</t>
-  </si>
-  <si>
     <t>Myautism webpage Info</t>
   </si>
   <si>
@@ -1752,13 +1661,97 @@
   </si>
   <si>
     <t>Phone</t>
+  </si>
+  <si>
+    <t>(519) 966-7283</t>
+  </si>
+  <si>
+    <t>(905) 634-2881</t>
+  </si>
+  <si>
+    <t>(780) 591-1000</t>
+  </si>
+  <si>
+    <t>(780) 591-1001</t>
+  </si>
+  <si>
+    <t>(902) 453-6000-227</t>
+  </si>
+  <si>
+    <t>(905) 844-7864</t>
+  </si>
+  <si>
+    <t>(514) 327-6667-200</t>
+  </si>
+  <si>
+    <t>(613) 225-5900-44</t>
+  </si>
+  <si>
+    <t>(905) 265-9633</t>
+  </si>
+  <si>
+    <t>(514) 695-3914-3304</t>
+  </si>
+  <si>
+    <t>(905) 841-7303</t>
+  </si>
+  <si>
+    <t>(403) 590-2122</t>
+  </si>
+  <si>
+    <t>(416) 480-7254</t>
+  </si>
+  <si>
+    <t>(780) 980-9423</t>
+  </si>
+  <si>
+    <t>(506) 778-6411</t>
+  </si>
+  <si>
+    <t>(506) 536-4565</t>
+  </si>
+  <si>
+    <t>(438) 321-1564</t>
+  </si>
+  <si>
+    <t>(877) 855-7070</t>
+  </si>
+  <si>
+    <t>(902) 894-9286</t>
+  </si>
+  <si>
+    <t>(250) 635-3178</t>
+  </si>
+  <si>
+    <t>(819) 595-1290</t>
+  </si>
+  <si>
+    <t>(403) 276-9403</t>
+  </si>
+  <si>
+    <t>(905) 439-9280</t>
+  </si>
+  <si>
+    <t>(403) 845-2922</t>
+  </si>
+  <si>
+    <t>(514) 694-7090</t>
+  </si>
+  <si>
+    <t>(905) 640-2127</t>
+  </si>
+  <si>
+    <t>(647) 519-6739</t>
+  </si>
+  <si>
+    <t>(867) 873-8257</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1770,6 +1763,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2139,33 +2138,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.625" customWidth="1"/>
-    <col min="2" max="2" width="32.25" customWidth="1"/>
-    <col min="3" max="3" width="34.875" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>573</v>
+        <v>543</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>574</v>
+        <v>544</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2179,7 +2178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2193,7 +2192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2207,7 +2206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2221,7 +2220,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2235,7 +2234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2249,7 +2248,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2263,7 +2262,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2277,7 +2276,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -2291,7 +2290,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -2305,7 +2304,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -2319,7 +2318,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -2333,7 +2332,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -2347,7 +2346,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -2361,7 +2360,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -2375,7 +2374,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -2389,7 +2388,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2403,7 +2402,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -2417,7 +2416,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -2431,7 +2430,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -2445,7 +2444,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -2459,7 +2458,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -2473,7 +2472,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -2487,7 +2486,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -2501,7 +2500,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -2515,7 +2514,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>88</v>
       </c>
@@ -2529,7 +2528,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>92</v>
       </c>
@@ -2540,1900 +2539,1901 @@
         <v>94</v>
       </c>
       <c r="D28" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
         <v>96</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>97</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>98</v>
       </c>
-      <c r="D29" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
         <v>100</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>101</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>102</v>
       </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
         <v>104</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>105</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>106</v>
       </c>
-      <c r="D31" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>108</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>109</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>110</v>
       </c>
-      <c r="D32" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
         <v>112</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>113</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>114</v>
       </c>
-      <c r="D33" t="s">
+      <c r="B34" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="C34" t="s">
         <v>116</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D34" t="s">
         <v>117</v>
       </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>118</v>
       </c>
-      <c r="D34" t="s">
+      <c r="B35" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="C35" t="s">
         <v>120</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
         <v>121</v>
       </c>
-      <c r="C35" t="s">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>122</v>
       </c>
-      <c r="D35" t="s">
+      <c r="B36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="D36" t="s">
         <v>124</v>
       </c>
-      <c r="B36" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" t="s">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>125</v>
       </c>
-      <c r="D36" t="s">
+      <c r="B37" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="C37" t="s">
         <v>127</v>
       </c>
-      <c r="B37" t="s">
+      <c r="D37" t="s">
         <v>128</v>
       </c>
-      <c r="C37" t="s">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>129</v>
       </c>
-      <c r="D37" t="s">
+      <c r="B38" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="C38" t="s">
         <v>131</v>
       </c>
-      <c r="B38" t="s">
+      <c r="D38" t="s">
         <v>132</v>
       </c>
-      <c r="C38" t="s">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>133</v>
       </c>
-      <c r="D38" t="s">
+      <c r="B39" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="C39" t="s">
         <v>135</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
         <v>136</v>
       </c>
-      <c r="C39" t="s">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>137</v>
       </c>
-      <c r="D39" t="s">
+      <c r="B40" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="C40" t="s">
         <v>139</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>140</v>
       </c>
-      <c r="C40" t="s">
+      <c r="B41" t="s">
         <v>141</v>
       </c>
-      <c r="D40" t="s">
+      <c r="C41" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="D41" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>143</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>144</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>145</v>
       </c>
-      <c r="D41" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="D42" t="s">
         <v>146</v>
       </c>
-      <c r="B42" t="s">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>147</v>
       </c>
-      <c r="C42" t="s">
+      <c r="B43" t="s">
         <v>148</v>
       </c>
-      <c r="D42" t="s">
+      <c r="C43" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="D43" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>150</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>151</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>152</v>
-      </c>
-      <c r="D43" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>154</v>
-      </c>
-      <c r="B44" t="s">
-        <v>155</v>
-      </c>
-      <c r="C44" t="s">
-        <v>156</v>
       </c>
       <c r="D44" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" t="s">
         <v>157</v>
       </c>
-      <c r="B45" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>158</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B47" t="s">
         <v>160</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C47" t="s">
         <v>161</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D47" t="s">
         <v>162</v>
       </c>
-      <c r="D46" t="s">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B48" t="s">
         <v>164</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C48" t="s">
         <v>165</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D48" t="s">
         <v>166</v>
       </c>
-      <c r="D47" t="s">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B49" t="s">
         <v>168</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C49" t="s">
         <v>169</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D49" t="s">
         <v>170</v>
       </c>
-      <c r="D48" t="s">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B50" t="s">
         <v>172</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C50" t="s">
         <v>173</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D50" t="s">
         <v>174</v>
       </c>
-      <c r="D49" t="s">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B51" t="s">
         <v>176</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C51" t="s">
         <v>177</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D51" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>178</v>
       </c>
-      <c r="D50" t="s">
+      <c r="B52" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="C52" t="s">
         <v>180</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D52" t="s">
         <v>181</v>
       </c>
-      <c r="C51" t="s">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>182</v>
       </c>
-      <c r="D51" t="s">
+      <c r="B53" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="C53" t="s">
         <v>184</v>
       </c>
-      <c r="B52" t="s">
+      <c r="D53" t="s">
         <v>185</v>
       </c>
-      <c r="C52" t="s">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>186</v>
       </c>
-      <c r="D52" t="s">
+      <c r="B54" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="C54" t="s">
         <v>188</v>
       </c>
-      <c r="B53" t="s">
+      <c r="D54" t="s">
         <v>189</v>
       </c>
-      <c r="C53" t="s">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>190</v>
       </c>
-      <c r="D53" t="s">
+      <c r="B55" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="C55" t="s">
         <v>192</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D55" t="s">
         <v>193</v>
       </c>
-      <c r="C54" t="s">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>194</v>
       </c>
-      <c r="D54" t="s">
+      <c r="B56" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="C56" t="s">
         <v>196</v>
       </c>
-      <c r="B55" t="s">
+      <c r="D56" t="s">
         <v>197</v>
       </c>
-      <c r="C55" t="s">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>198</v>
       </c>
-      <c r="D55" t="s">
+      <c r="B57" t="s">
+        <v>195</v>
+      </c>
+      <c r="C57" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="D57" t="s">
         <v>200</v>
       </c>
-      <c r="B56" t="s">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>201</v>
       </c>
-      <c r="C56" t="s">
+      <c r="B58" t="s">
+        <v>195</v>
+      </c>
+      <c r="C58" t="s">
         <v>202</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D58" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>204</v>
       </c>
-      <c r="B57" t="s">
-        <v>201</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B59" t="s">
+        <v>195</v>
+      </c>
+      <c r="C59" t="s">
+        <v>196</v>
+      </c>
+      <c r="D59" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>205</v>
       </c>
-      <c r="D57" t="s">
+      <c r="B60" t="s">
+        <v>195</v>
+      </c>
+      <c r="C60" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="D60" t="s">
         <v>207</v>
       </c>
-      <c r="B58" t="s">
-        <v>201</v>
-      </c>
-      <c r="C58" t="s">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>208</v>
       </c>
-      <c r="D58" t="s">
+      <c r="B61" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="C61" t="s">
         <v>210</v>
       </c>
-      <c r="B59" t="s">
-        <v>201</v>
-      </c>
-      <c r="C59" t="s">
-        <v>202</v>
-      </c>
-      <c r="D59" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="D61" t="s">
         <v>211</v>
       </c>
-      <c r="B60" t="s">
-        <v>201</v>
-      </c>
-      <c r="C60" t="s">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>212</v>
       </c>
-      <c r="D60" t="s">
+      <c r="B62" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="C62" t="s">
         <v>214</v>
       </c>
-      <c r="B61" t="s">
+      <c r="D62" t="s">
         <v>215</v>
       </c>
-      <c r="C61" t="s">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>216</v>
       </c>
-      <c r="D61" t="s">
+      <c r="B63" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="C63" t="s">
         <v>218</v>
       </c>
-      <c r="B62" t="s">
+      <c r="D63" t="s">
         <v>219</v>
       </c>
-      <c r="C62" t="s">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>220</v>
       </c>
-      <c r="D62" t="s">
+      <c r="B64" t="s">
+        <v>217</v>
+      </c>
+      <c r="C64" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="D64" t="s">
         <v>222</v>
       </c>
-      <c r="B63" t="s">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>223</v>
       </c>
-      <c r="C63" t="s">
+      <c r="B65" t="s">
+        <v>217</v>
+      </c>
+      <c r="C65" t="s">
         <v>224</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D65" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>226</v>
       </c>
-      <c r="B64" t="s">
-        <v>223</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B66" t="s">
+        <v>217</v>
+      </c>
+      <c r="C66" t="s">
         <v>227</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D66" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="B67" t="s">
+        <v>217</v>
+      </c>
+      <c r="C67" t="s">
         <v>229</v>
       </c>
-      <c r="B65" t="s">
-        <v>223</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="D67" t="s">
         <v>230</v>
       </c>
-      <c r="D65" t="s">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B68" t="s">
+        <v>217</v>
+      </c>
+      <c r="C68" t="s">
         <v>232</v>
       </c>
-      <c r="B66" t="s">
-        <v>223</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="D68" t="s">
         <v>233</v>
       </c>
-      <c r="D66" t="s">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="B69" t="s">
+        <v>217</v>
+      </c>
+      <c r="C69" t="s">
         <v>235</v>
       </c>
-      <c r="B67" t="s">
-        <v>223</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="D69" t="s">
         <v>236</v>
       </c>
-      <c r="D67" t="s">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="B70" t="s">
         <v>238</v>
       </c>
-      <c r="B68" t="s">
-        <v>223</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="C70" t="s">
         <v>239</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D70" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>241</v>
       </c>
-      <c r="B69" t="s">
-        <v>223</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B71" t="s">
         <v>242</v>
       </c>
-      <c r="D69" t="s">
+      <c r="C71" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="D71" t="s">
         <v>244</v>
       </c>
-      <c r="B70" t="s">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>245</v>
       </c>
-      <c r="C70" t="s">
+      <c r="B72" t="s">
+        <v>242</v>
+      </c>
+      <c r="C72" t="s">
         <v>246</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D72" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>248</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B73" t="s">
+        <v>242</v>
+      </c>
+      <c r="C73" t="s">
         <v>249</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D73" t="s">
         <v>250</v>
       </c>
-      <c r="D71" t="s">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="B74" t="s">
         <v>252</v>
       </c>
-      <c r="B72" t="s">
-        <v>249</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="C74" t="s">
         <v>253</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D74" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="B75" t="s">
+        <v>252</v>
+      </c>
+      <c r="C75" t="s">
         <v>255</v>
-      </c>
-      <c r="B73" t="s">
-        <v>249</v>
-      </c>
-      <c r="C73" t="s">
-        <v>256</v>
-      </c>
-      <c r="D73" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>258</v>
-      </c>
-      <c r="B74" t="s">
-        <v>259</v>
-      </c>
-      <c r="C74" t="s">
-        <v>260</v>
-      </c>
-      <c r="D74" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>262</v>
-      </c>
-      <c r="B75" t="s">
-        <v>259</v>
-      </c>
-      <c r="C75" t="s">
-        <v>263</v>
       </c>
       <c r="D75" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>256</v>
+      </c>
+      <c r="B76" t="s">
+        <v>257</v>
+      </c>
+      <c r="C76" t="s">
+        <v>258</v>
+      </c>
+      <c r="D76" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>260</v>
+      </c>
+      <c r="B77" t="s">
+        <v>257</v>
+      </c>
+      <c r="C77" t="s">
+        <v>261</v>
+      </c>
+      <c r="D77" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>263</v>
+      </c>
+      <c r="B78" t="s">
         <v>264</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C78" t="s">
         <v>265</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D78" t="s">
         <v>266</v>
       </c>
-      <c r="D76" t="s">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="B79" t="s">
         <v>268</v>
       </c>
-      <c r="B77" t="s">
-        <v>265</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="C79" t="s">
         <v>269</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D79" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>271</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B80" t="s">
         <v>272</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C80" t="s">
         <v>273</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D80" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>275</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B81" t="s">
+        <v>272</v>
+      </c>
+      <c r="C81" t="s">
         <v>276</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D81" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>277</v>
       </c>
-      <c r="D79" t="s">
+      <c r="B82" t="s">
+        <v>272</v>
+      </c>
+      <c r="C82" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="D82" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>279</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B83" t="s">
         <v>280</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C83" t="s">
         <v>281</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D83" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>283</v>
       </c>
-      <c r="B81" t="s">
-        <v>280</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B84" t="s">
         <v>284</v>
       </c>
-      <c r="D81" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="C84" t="s">
         <v>285</v>
       </c>
-      <c r="B82" t="s">
-        <v>280</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="D84" t="s">
         <v>286</v>
       </c>
-      <c r="D82" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>287</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B85" t="s">
         <v>288</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C85" t="s">
         <v>289</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D85" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>291</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B86" t="s">
         <v>292</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C86" t="s">
         <v>293</v>
-      </c>
-      <c r="D84" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>295</v>
-      </c>
-      <c r="B85" t="s">
-        <v>296</v>
-      </c>
-      <c r="C85" t="s">
-        <v>297</v>
-      </c>
-      <c r="D85" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>299</v>
-      </c>
-      <c r="B86" t="s">
-        <v>300</v>
-      </c>
-      <c r="C86" t="s">
-        <v>301</v>
       </c>
       <c r="D86" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>294</v>
+      </c>
+      <c r="B87" t="s">
+        <v>295</v>
+      </c>
+      <c r="C87" t="s">
+        <v>296</v>
+      </c>
+      <c r="D87" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>298</v>
+      </c>
+      <c r="B88" t="s">
+        <v>299</v>
+      </c>
+      <c r="C88" t="s">
+        <v>300</v>
+      </c>
+      <c r="D88" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>302</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B89" t="s">
         <v>303</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C89" t="s">
         <v>304</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D89" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>306</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B90" t="s">
         <v>307</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C90" t="s">
         <v>308</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D90" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>310</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B91" t="s">
+        <v>307</v>
+      </c>
+      <c r="C91" t="s">
         <v>311</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D91" t="s">
         <v>312</v>
       </c>
-      <c r="D89" t="s">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="B92" t="s">
+        <v>307</v>
+      </c>
+      <c r="C92" t="s">
         <v>314</v>
       </c>
-      <c r="B90" t="s">
+      <c r="D92" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>315</v>
       </c>
-      <c r="C90" t="s">
+      <c r="B93" t="s">
+        <v>307</v>
+      </c>
+      <c r="C93" t="s">
         <v>316</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D93" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>318</v>
       </c>
-      <c r="B91" t="s">
-        <v>315</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B94" t="s">
         <v>319</v>
       </c>
-      <c r="D91" t="s">
+      <c r="C94" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="D94" t="s">
         <v>321</v>
       </c>
-      <c r="B92" t="s">
-        <v>315</v>
-      </c>
-      <c r="C92" t="s">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>322</v>
       </c>
-      <c r="D92" t="s">
+      <c r="B95" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="C95" t="s">
         <v>324</v>
       </c>
-      <c r="B93" t="s">
-        <v>315</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="D95" t="s">
         <v>325</v>
       </c>
-      <c r="D93" t="s">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="B96" t="s">
         <v>327</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C96" t="s">
         <v>328</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D96" t="s">
         <v>329</v>
       </c>
-      <c r="D94" t="s">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="B97" t="s">
         <v>331</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C97" t="s">
         <v>332</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D97" t="s">
         <v>333</v>
       </c>
-      <c r="D95" t="s">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="B98" t="s">
         <v>335</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C98" t="s">
         <v>336</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D98" t="s">
         <v>337</v>
       </c>
-      <c r="D96" t="s">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="B99" t="s">
+        <v>335</v>
+      </c>
+      <c r="C99" t="s">
         <v>339</v>
       </c>
-      <c r="B97" t="s">
+      <c r="D99" t="s">
         <v>340</v>
       </c>
-      <c r="C97" t="s">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>341</v>
       </c>
-      <c r="D97" t="s">
+      <c r="B100" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="C100" t="s">
         <v>343</v>
       </c>
-      <c r="B98" t="s">
+      <c r="D100" t="s">
         <v>344</v>
       </c>
-      <c r="C98" t="s">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>345</v>
       </c>
-      <c r="D98" t="s">
+      <c r="B101" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="C101" t="s">
         <v>347</v>
       </c>
-      <c r="B99" t="s">
-        <v>344</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="D101" t="s">
         <v>348</v>
       </c>
-      <c r="D99" t="s">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="B102" t="s">
+        <v>346</v>
+      </c>
+      <c r="C102" t="s">
         <v>350</v>
       </c>
-      <c r="B100" t="s">
+      <c r="D102" t="s">
         <v>351</v>
       </c>
-      <c r="C100" t="s">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>352</v>
       </c>
-      <c r="D100" t="s">
+      <c r="B103" t="s">
+        <v>346</v>
+      </c>
+      <c r="C103" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="D103" t="s">
         <v>354</v>
       </c>
-      <c r="B101" t="s">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>355</v>
       </c>
-      <c r="C101" t="s">
+      <c r="B104" t="s">
+        <v>346</v>
+      </c>
+      <c r="C104" t="s">
         <v>356</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D104" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>358</v>
       </c>
-      <c r="B102" t="s">
-        <v>355</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B105" t="s">
+        <v>346</v>
+      </c>
+      <c r="C105" t="s">
         <v>359</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D105" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>361</v>
       </c>
-      <c r="B103" t="s">
-        <v>355</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B106" t="s">
         <v>362</v>
       </c>
-      <c r="D103" t="s">
+      <c r="C106" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="D106" t="s">
         <v>364</v>
       </c>
-      <c r="B104" t="s">
-        <v>355</v>
-      </c>
-      <c r="C104" t="s">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>365</v>
       </c>
-      <c r="D104" t="s">
+      <c r="B107" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="C107" t="s">
         <v>367</v>
       </c>
-      <c r="B105" t="s">
-        <v>355</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="D107" t="s">
         <v>368</v>
       </c>
-      <c r="D105" t="s">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="B108" t="s">
         <v>370</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C108" t="s">
         <v>371</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D108" t="s">
         <v>372</v>
       </c>
-      <c r="D106" t="s">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="B109" t="s">
         <v>374</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C109" t="s">
         <v>375</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D109" t="s">
         <v>376</v>
       </c>
-      <c r="D107" t="s">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="B110" t="s">
+        <v>374</v>
+      </c>
+      <c r="C110" t="s">
         <v>378</v>
       </c>
-      <c r="B108" t="s">
+      <c r="D110" t="s">
         <v>379</v>
       </c>
-      <c r="C108" t="s">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>380</v>
       </c>
-      <c r="D108" t="s">
+      <c r="B111" t="s">
+        <v>374</v>
+      </c>
+      <c r="C111" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="D111" t="s">
         <v>382</v>
       </c>
-      <c r="B109" t="s">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>383</v>
       </c>
-      <c r="C109" t="s">
+      <c r="B112" t="s">
         <v>384</v>
       </c>
-      <c r="D109" t="s">
+      <c r="C112" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="D112" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>386</v>
       </c>
-      <c r="B110" t="s">
-        <v>383</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="B113" t="s">
+        <v>384</v>
+      </c>
+      <c r="C113" t="s">
         <v>387</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D113" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>389</v>
       </c>
-      <c r="B111" t="s">
-        <v>383</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="B114" t="s">
+        <v>384</v>
+      </c>
+      <c r="C114" t="s">
         <v>390</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D114" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="B115" t="s">
         <v>392</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C115" t="s">
         <v>393</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D115" t="s">
         <v>394</v>
       </c>
-      <c r="D112" t="s">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="B116" t="s">
         <v>396</v>
       </c>
-      <c r="B113" t="s">
-        <v>393</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="C116" t="s">
         <v>397</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D116" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>399</v>
       </c>
-      <c r="B114" t="s">
-        <v>393</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="B117" t="s">
+        <v>396</v>
+      </c>
+      <c r="C117" t="s">
         <v>400</v>
       </c>
-      <c r="D114" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="D117" t="s">
         <v>401</v>
       </c>
-      <c r="B115" t="s">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
         <v>402</v>
       </c>
-      <c r="C115" t="s">
+      <c r="B118" t="s">
         <v>403</v>
       </c>
-      <c r="D115" t="s">
+      <c r="C118" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="D118" t="s">
         <v>405</v>
       </c>
-      <c r="B116" t="s">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>406</v>
       </c>
-      <c r="C116" t="s">
+      <c r="B119" t="s">
         <v>407</v>
       </c>
-      <c r="D116" t="s">
+      <c r="C119" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="D119" t="s">
         <v>409</v>
       </c>
-      <c r="B117" t="s">
-        <v>406</v>
-      </c>
-      <c r="C117" t="s">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
         <v>410</v>
       </c>
-      <c r="D117" t="s">
+      <c r="B120" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="C120" t="s">
         <v>412</v>
       </c>
-      <c r="B118" t="s">
+      <c r="D120" t="s">
         <v>413</v>
       </c>
-      <c r="C118" t="s">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>414</v>
       </c>
-      <c r="D118" t="s">
+      <c r="B121" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="C121" t="s">
         <v>416</v>
       </c>
-      <c r="B119" t="s">
+      <c r="D121" t="s">
         <v>417</v>
       </c>
-      <c r="C119" t="s">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>418</v>
       </c>
-      <c r="D119" t="s">
+      <c r="B122" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="C122" t="s">
         <v>420</v>
       </c>
-      <c r="B120" t="s">
+      <c r="D122" t="s">
         <v>421</v>
       </c>
-      <c r="C120" t="s">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>422</v>
       </c>
-      <c r="D120" t="s">
+      <c r="B123" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="C123" t="s">
         <v>424</v>
       </c>
-      <c r="B121" t="s">
+      <c r="D123" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>425</v>
       </c>
-      <c r="C121" t="s">
+      <c r="B124" t="s">
         <v>426</v>
       </c>
-      <c r="D121" t="s">
+      <c r="C124" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="D124" t="s">
         <v>428</v>
       </c>
-      <c r="B122" t="s">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>429</v>
       </c>
-      <c r="C122" t="s">
+      <c r="B125" t="s">
         <v>430</v>
       </c>
-      <c r="D122" t="s">
+      <c r="C125" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="D125" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>432</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B126" t="s">
         <v>433</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C126" t="s">
         <v>434</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D126" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>436</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B127" t="s">
+        <v>433</v>
+      </c>
+      <c r="C127" t="s">
         <v>437</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D127" t="s">
         <v>438</v>
       </c>
-      <c r="D124" t="s">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="B128" t="s">
+        <v>433</v>
+      </c>
+      <c r="C128" t="s">
         <v>440</v>
       </c>
-      <c r="B125" t="s">
+      <c r="D128" t="s">
         <v>441</v>
       </c>
-      <c r="C125" t="s">
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>442</v>
       </c>
-      <c r="D125" t="s">
+      <c r="B129" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="C129" t="s">
         <v>444</v>
       </c>
-      <c r="B126" t="s">
+      <c r="D129" t="s">
         <v>445</v>
       </c>
-      <c r="C126" t="s">
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>446</v>
       </c>
-      <c r="D126" t="s">
+      <c r="B130" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="C130" t="s">
         <v>448</v>
       </c>
-      <c r="B127" t="s">
-        <v>445</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="D130" t="s">
         <v>449</v>
       </c>
-      <c r="D127" t="s">
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="B131" t="s">
         <v>451</v>
       </c>
-      <c r="B128" t="s">
-        <v>445</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="C131" t="s">
         <v>452</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D131" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="B132" t="s">
         <v>454</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C132" t="s">
         <v>455</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D132" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>456</v>
       </c>
-      <c r="D129" t="s">
+      <c r="B133" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="C133" t="s">
         <v>458</v>
       </c>
-      <c r="B130" t="s">
+      <c r="D133" t="s">
         <v>459</v>
       </c>
-      <c r="C130" t="s">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>460</v>
       </c>
-      <c r="D130" t="s">
+      <c r="B134" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="C134" t="s">
         <v>462</v>
       </c>
-      <c r="B131" t="s">
+      <c r="D134" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>463</v>
       </c>
-      <c r="C131" t="s">
+      <c r="B135" t="s">
         <v>464</v>
       </c>
-      <c r="D131" t="s">
+      <c r="C135" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="D135" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>466</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B136" t="s">
         <v>467</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C136" t="s">
         <v>468</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D136" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="B137" t="s">
         <v>470</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C137" t="s">
         <v>471</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D137" t="s">
         <v>472</v>
       </c>
-      <c r="D133" t="s">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="B138" t="s">
         <v>474</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C138" t="s">
         <v>475</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D138" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>476</v>
       </c>
-      <c r="D134" t="s">
+      <c r="B139" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="C139" t="s">
         <v>478</v>
       </c>
-      <c r="B135" t="s">
+      <c r="D139" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
         <v>479</v>
       </c>
-      <c r="C135" t="s">
+      <c r="B140" t="s">
         <v>480</v>
       </c>
-      <c r="D135" t="s">
+      <c r="C140" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="D140" t="s">
         <v>482</v>
       </c>
-      <c r="B136" t="s">
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>483</v>
       </c>
-      <c r="C136" t="s">
+      <c r="B141" t="s">
+        <v>480</v>
+      </c>
+      <c r="C141" t="s">
         <v>484</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D141" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="B142" t="s">
+        <v>480</v>
+      </c>
+      <c r="C142" t="s">
         <v>486</v>
       </c>
-      <c r="B137" t="s">
+      <c r="D142" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>487</v>
       </c>
-      <c r="C137" t="s">
+      <c r="B143" t="s">
+        <v>480</v>
+      </c>
+      <c r="C143" t="s">
         <v>488</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D143" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="B144" t="s">
+        <v>480</v>
+      </c>
+      <c r="C144" t="s">
         <v>490</v>
       </c>
-      <c r="B138" t="s">
+      <c r="D144" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
         <v>491</v>
       </c>
-      <c r="C138" t="s">
+      <c r="B145" t="s">
+        <v>480</v>
+      </c>
+      <c r="C145" t="s">
         <v>492</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D145" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="B146" t="s">
+        <v>480</v>
+      </c>
+      <c r="C146" t="s">
         <v>494</v>
       </c>
-      <c r="B139" t="s">
+      <c r="D146" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
         <v>495</v>
       </c>
-      <c r="C139" t="s">
+      <c r="B147" t="s">
+        <v>480</v>
+      </c>
+      <c r="C147" t="s">
         <v>496</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D147" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="B148" t="s">
+        <v>480</v>
+      </c>
+      <c r="C148" t="s">
         <v>498</v>
       </c>
-      <c r="B140" t="s">
+      <c r="D148" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
         <v>499</v>
       </c>
-      <c r="C140" t="s">
+      <c r="B149" t="s">
+        <v>480</v>
+      </c>
+      <c r="C149" t="s">
         <v>500</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D149" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="B150" t="s">
         <v>502</v>
       </c>
-      <c r="B141" t="s">
-        <v>499</v>
-      </c>
-      <c r="C141" t="s">
-        <v>503</v>
-      </c>
-      <c r="D141" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>504</v>
-      </c>
-      <c r="B142" t="s">
-        <v>499</v>
-      </c>
-      <c r="C142" t="s">
-        <v>505</v>
-      </c>
-      <c r="D142" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>506</v>
-      </c>
-      <c r="B143" t="s">
-        <v>499</v>
-      </c>
-      <c r="C143" t="s">
-        <v>507</v>
-      </c>
-      <c r="D143" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>508</v>
-      </c>
-      <c r="B144" t="s">
-        <v>499</v>
-      </c>
-      <c r="C144" t="s">
-        <v>509</v>
-      </c>
-      <c r="D144" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>510</v>
-      </c>
-      <c r="B145" t="s">
-        <v>499</v>
-      </c>
-      <c r="C145" t="s">
-        <v>511</v>
-      </c>
-      <c r="D145" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>512</v>
-      </c>
-      <c r="B146" t="s">
-        <v>499</v>
-      </c>
-      <c r="C146" t="s">
-        <v>513</v>
-      </c>
-      <c r="D146" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>514</v>
-      </c>
-      <c r="B147" t="s">
-        <v>499</v>
-      </c>
-      <c r="C147" t="s">
-        <v>515</v>
-      </c>
-      <c r="D147" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>517</v>
-      </c>
-      <c r="B148" t="s">
-        <v>499</v>
-      </c>
-      <c r="C148" t="s">
-        <v>518</v>
-      </c>
-      <c r="D148" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>519</v>
-      </c>
-      <c r="B149" t="s">
-        <v>499</v>
-      </c>
-      <c r="C149" t="s">
-        <v>520</v>
-      </c>
-      <c r="D149" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>521</v>
-      </c>
-      <c r="B150" t="s">
-        <v>522</v>
-      </c>
       <c r="C150" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="D150" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="B151" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="C151" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="D151" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
+        <v>505</v>
+      </c>
+      <c r="B152" t="s">
+        <v>506</v>
+      </c>
+      <c r="C152" t="s">
+        <v>507</v>
+      </c>
+      <c r="D152" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>508</v>
+      </c>
+      <c r="B153" t="s">
+        <v>509</v>
+      </c>
+      <c r="C153" t="s">
+        <v>510</v>
+      </c>
+      <c r="D153" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>512</v>
+      </c>
+      <c r="B154" t="s">
+        <v>513</v>
+      </c>
+      <c r="C154" t="s">
+        <v>514</v>
+      </c>
+      <c r="D154" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>515</v>
+      </c>
+      <c r="B155" t="s">
+        <v>516</v>
+      </c>
+      <c r="C155" t="s">
+        <v>517</v>
+      </c>
+      <c r="D155" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>518</v>
+      </c>
+      <c r="B156" t="s">
+        <v>519</v>
+      </c>
+      <c r="C156" t="s">
+        <v>520</v>
+      </c>
+      <c r="D156" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>521</v>
+      </c>
+      <c r="B157" t="s">
+        <v>522</v>
+      </c>
+      <c r="C157" t="s">
+        <v>523</v>
+      </c>
+      <c r="D157" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>524</v>
+      </c>
+      <c r="B158" t="s">
         <v>525</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C158" t="s">
         <v>526</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D158" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
         <v>527</v>
       </c>
-      <c r="D152" t="s">
+      <c r="B159" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="C159" t="s">
         <v>529</v>
       </c>
-      <c r="B153" t="s">
+      <c r="D159" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
         <v>530</v>
       </c>
-      <c r="C153" t="s">
+      <c r="B160" t="s">
         <v>531</v>
       </c>
-      <c r="D153" t="s">
+      <c r="C160" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="D160" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
         <v>533</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B161" t="s">
         <v>534</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C161" t="s">
         <v>535</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D161" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="B162" t="s">
         <v>537</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C162" t="s">
         <v>538</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D162" t="s">
         <v>539</v>
       </c>
-      <c r="D155" t="s">
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="B163" t="s">
         <v>541</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C163" t="s">
         <v>542</v>
       </c>
-      <c r="C156" t="s">
-        <v>543</v>
-      </c>
-      <c r="D156" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>545</v>
-      </c>
-      <c r="B157" t="s">
-        <v>546</v>
-      </c>
-      <c r="C157" t="s">
-        <v>547</v>
-      </c>
-      <c r="D157" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>549</v>
-      </c>
-      <c r="B158" t="s">
-        <v>550</v>
-      </c>
-      <c r="C158" t="s">
-        <v>551</v>
-      </c>
-      <c r="D158" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>553</v>
-      </c>
-      <c r="B159" t="s">
-        <v>554</v>
-      </c>
-      <c r="C159" t="s">
-        <v>555</v>
-      </c>
-      <c r="D159" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>557</v>
-      </c>
-      <c r="B160" t="s">
-        <v>558</v>
-      </c>
-      <c r="C160" t="s">
-        <v>559</v>
-      </c>
-      <c r="D160" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>561</v>
-      </c>
-      <c r="B161" t="s">
-        <v>562</v>
-      </c>
-      <c r="C161" t="s">
-        <v>563</v>
-      </c>
-      <c r="D161" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>565</v>
-      </c>
-      <c r="B162" t="s">
-        <v>566</v>
-      </c>
-      <c r="C162" t="s">
-        <v>567</v>
-      </c>
-      <c r="D162" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>569</v>
-      </c>
-      <c r="B163" t="s">
-        <v>570</v>
-      </c>
-      <c r="C163" t="s">
-        <v>571</v>
-      </c>
       <c r="D163" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
